--- a/会计/Manufacturing Account/UEB 1979 Q1.xlsx
+++ b/会计/Manufacturing Account/UEB 1979 Q1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melvinchia/Documents/involution/会计/Manufacturing Account/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B797A0D8-0BC4-CA4E-B2A4-329A46E57A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DAA1FD-C1CF-044A-8C78-6286B9FAD6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440" xr2:uid="{AFB8BCA2-9754-054F-9851-F47CCF4D32DB}"/>
   </bookViews>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -267,6 +267,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,10 +588,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,377 +648,376 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="6">
         <v>168523</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="11">
+        <f>C7+C8</f>
+        <v>200907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6">
         <v>-34321</v>
       </c>
-      <c r="C9" s="6">
-        <f>B8+B9</f>
-        <v>134202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
-        <f>C7+C9</f>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
+        <f>C9+C10</f>
         <v>166586</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6">
         <v>214675</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
-        <f>C10+C12</f>
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
+        <f>C11+C13</f>
         <v>381261</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6">
         <v>19836</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
-        <f>C13+C14</f>
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5">
+        <f>C14+C15</f>
         <v>401097</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6">
         <v>-17948</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
-        <f>C15+C16</f>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <f>C16+C17</f>
         <v>383149</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3816</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="5">
-        <v>2382</v>
+        <v>3816</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="5">
-        <v>1600</v>
+        <v>2382</v>
       </c>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5">
-        <v>3857</v>
+        <v>1600</v>
       </c>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B23" s="5">
-        <v>129367</v>
+        <v>3857</v>
       </c>
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="6">
-        <v>12000</v>
-      </c>
-      <c r="C24" s="6">
-        <f>SUM(B19:B24)</f>
-        <v>153022</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>129367</v>
+      </c>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="6">
+        <v>12000</v>
+      </c>
+      <c r="C25" s="6">
+        <f>SUM(B20:B25)</f>
+        <v>153022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5">
-        <f>C17+C24</f>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5">
+        <f>C18+C25</f>
         <v>536171</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+    <row r="27" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6">
-        <f>C27-C25</f>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6">
+        <f>C28-C26</f>
         <v>15629</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="28" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="8">
+      <c r="B28" s="5"/>
+      <c r="C28" s="8">
         <v>551800</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="5">
-        <v>736758</v>
-      </c>
+    <row r="29" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="6">
-        <v>-1294</v>
+        <v>21</v>
+      </c>
+      <c r="C30" s="5">
+        <v>736758</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="6">
+        <v>-1294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="5">
-        <f>C29+C30</f>
+      <c r="C32" s="5">
+        <f>C30+C31</f>
         <v>735464</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B34" s="5">
         <f>26983</f>
         <v>26983</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="5">
-        <f>C27</f>
-        <v>551800</v>
-      </c>
       <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="5">
+        <f>C28</f>
+        <v>551800</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B36" s="6">
         <v>5645</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="5">
-        <f>SUM(B33:B35)</f>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="5">
+        <f>SUM(B34:B36)</f>
         <v>584428</v>
       </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B38" s="6">
         <v>-21483</v>
       </c>
-      <c r="C37" s="6">
-        <f>-B36-B37</f>
+      <c r="C38" s="6">
+        <f>-B37-B38</f>
         <v>-562945</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+    <row r="39" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="5">
-        <f>C31+C37</f>
-        <v>172519</v>
-      </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5">
+        <f>C32+C38</f>
+        <v>172519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6">
-        <f>C26</f>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6">
+        <f>C27</f>
         <v>15629</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5">
-        <f>C39+C40</f>
+    <row r="42" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5">
+        <f>C40+C41</f>
         <v>188148</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1734</v>
-      </c>
+      <c r="B43" s="5"/>
       <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="5">
-        <v>4131</v>
+        <v>1734</v>
       </c>
       <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="5">
-        <v>12500</v>
+        <v>4131</v>
       </c>
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="5">
-        <v>16790</v>
+        <v>12500</v>
       </c>
       <c r="C46" s="5"/>
     </row>
     <row r="47" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="5">
-        <v>58532</v>
+        <v>16790</v>
       </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="5">
+        <v>58532</v>
+      </c>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B49" s="5">
         <v>9826</v>
       </c>
-      <c r="C48" s="6">
-        <f>-SUM(B43:B48)</f>
+      <c r="C49" s="6">
+        <f>-SUM(B44:B49)</f>
         <v>-103513</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+    <row r="50" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="8">
-        <f>C41+C48</f>
+      <c r="B50" s="5"/>
+      <c r="C50" s="8">
+        <f>C42+C49</f>
         <v>84635</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
     </row>
@@ -1154,6 +1156,10 @@
     <row r="85" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="2:3" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
